--- a/biology/Botanique/Sedum_palmeri/Sedum_palmeri.xlsx
+++ b/biology/Botanique/Sedum_palmeri/Sedum_palmeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum palmeri (syn. Sedum compressum), aussi appelé orpin de Palmer, est une espèce de plante succulente appartenant au genre Sedum. Elle est originaire des montagnes du Mexique.
 Elle est utilisée en horticulture pour garnir les potées, les rocailles et les bordures de jardin.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum palmeri a un port arbustif, rampant ou retombant selon la culture et l'exposition. Elle peut mesurer jusqu'à 20 cm de haut et ressembler à un Aeonium.
 La plante forme de petites rosettes de feuilles sessiles bleu-vert, rouge en cas de chaleur ou de gel, de 5 à 8 cm de diamètre, portées par des tiges ramifiées d'une vingtaine de centimètres.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est rustique (Zone USDA 8, jusqu'à -10 °C mais dans un sol très drainant). Elle a une croissance très rapide et apprécie le plein soleil.
 Le bouturage est très facile (tige seule ou rosette avec au moins 1 cm de tige). Un fragment bouturé en été fleurit dès le milieu de l'hiver suivant.
